--- a/doc/Sigdial2013/entries/Entries.xlsx
+++ b/doc/Sigdial2013/entries/Entries.xlsx
@@ -16,102 +16,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Team</t>
   </si>
   <si>
-    <t>Accuracy</t>
-  </si>
-  <si>
     <t>Method</t>
   </si>
   <si>
     <t>Author</t>
   </si>
   <si>
-    <t>Metallinou, Bohus &amp;  Williams</t>
-  </si>
-  <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>0.67, 0.73</t>
-  </si>
-  <si>
-    <t>Matthew Henderson, Blaise Thomson and Steve Young</t>
-  </si>
-  <si>
     <t>Deep Neural Network</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>speech recognition error pattern</t>
   </si>
   <si>
     <t>Deep learning</t>
   </si>
   <si>
-    <t>Heriberto Cuay´ahuitl, Nina Dethlefs, Helen Hastie, Oliver Lemon</t>
-  </si>
-  <si>
     <t>Bayesian Networks</t>
   </si>
   <si>
-    <t>25+17+1</t>
-  </si>
-  <si>
     <t>Re-ranking N-best ASR</t>
   </si>
   <si>
-    <t>Sungjin Lee and Maxine Eskenazi</t>
-  </si>
-  <si>
     <t>MaxEnt</t>
   </si>
   <si>
     <t>L1 Regularization, bins</t>
   </si>
   <si>
-    <t>Zhuoran Wang and Oliver Lemon</t>
-  </si>
-  <si>
     <t>Rules</t>
   </si>
   <si>
-    <t>Jason D. Williams</t>
-  </si>
-  <si>
     <t>infor, deny, affirm, negate</t>
   </si>
   <si>
     <t>multi-domain learning</t>
   </si>
   <si>
-    <t>Sungjin Lee</t>
-  </si>
-  <si>
     <t>Structured Discriminative model</t>
   </si>
   <si>
-    <t>Luka´sˇ Zˇ ilka, David Marek, Mateˇj Korvas, Filip Jurcˇ´ıcˇek</t>
-  </si>
-  <si>
     <t>Bayesian, Generative</t>
   </si>
   <si>
-    <t>Hang Ren, Weiqun Xu, Yan Zhang,Yonghong Yan</t>
-  </si>
-  <si>
     <t>CRF</t>
   </si>
   <si>
-    <t>Daejoong Kim, Jaedeug Choi, Kee-Eung Kim</t>
-  </si>
-  <si>
     <t>Different models</t>
+  </si>
+  <si>
+    <t>New Idea</t>
+  </si>
+  <si>
+    <t>Metallinou et al.</t>
+  </si>
+  <si>
+    <t>Henderson et al.</t>
+  </si>
+  <si>
+    <t>Cuayahuitl et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee </t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Wang and Lemon</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Zilka et al.</t>
+  </si>
+  <si>
+    <t>Ren et al.</t>
+  </si>
+  <si>
+    <t>Kim et al.</t>
   </si>
 </sst>
 </file>
@@ -147,9 +135,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,175 +438,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0.68</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.73899999999999999</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Sigdial2013/entries/Entries.xlsx
+++ b/doc/Sigdial2013/entries/Entries.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
